--- a/data/maturity_codes.xlsx
+++ b/data/maturity_codes.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="144" windowWidth="30660" windowHeight="14280" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="144" windowWidth="30660" windowHeight="14280" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="mat convens, codes and descrips" sheetId="1" r:id="rId1"/>
     <sheet name="sql for mat conven's and codes" sheetId="3" r:id="rId2"/>
     <sheet name="mat codes summary" sheetId="2" r:id="rId3"/>
     <sheet name="sql for mat codes summary" sheetId="4" r:id="rId4"/>
+    <sheet name="maturity assigment" sheetId="5" r:id="rId5"/>
+    <sheet name="sql for mat assign csv" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="405">
   <si>
     <t>ROCKFISH (1977+)</t>
   </si>
@@ -1199,6 +1201,39 @@
   </si>
   <si>
     <t>confirm with Jackie</t>
+  </si>
+  <si>
+    <t>SELECT MC.MATURITY_CONVENTION_CODE AS MAT_CONV_CODE, MC.MATURITY_CONVENTION_DESC AS MAT_CONV_DESC, MD.SPECIMEN_SEX_CODE, MC.MATURITY_CONVENTION_MAXVALUE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   WHEN 16 THEN 2 WHEN 17 THEN 2 WHEN 20 THEN 2 WHEN 22 THEN 2 WHEN 23 THEN 2 WHEN 10 THEN (CASE MD.SPECIMEN_SEX_CODE WHEN 1 THEN 90 WHEN 2 THEN 55 ELSE NULL END)</t>
+  </si>
+  <si>
+    <t>FROM              GFBioSQL.dbo.MATURITY_CONVENTION AS MC INNER JOIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  GFBioSQL.dbo.MATURITY_DESCRIPTION AS MD ON MC.MATURITY_CONVENTION_CODE = MD.MATURITY_CONVENTION_CODE </t>
+  </si>
+  <si>
+    <t>GROUP BY MC.MATURITY_CONVENTION_DESC, MC.MATURITY_CONVENTION_CODE, MD.SPECIMEN_SEX_CODE, MC.MATURITY_CONVENTION_MAXVALUE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   WHEN 16 THEN 2 WHEN 17 THEN 2 WHEN 20 THEN 2 WHEN 22 THEN 2 WHEN 23 THEN 2 WHEN 10 THEN (CASE MD.SPECIMEN_SEX_CODE WHEN 1 THEN 90 WHEN 2 THEN 55 END)</t>
+  </si>
+  <si>
+    <t>maturity_convention_code</t>
+  </si>
+  <si>
+    <t>maturity_convention_description</t>
+  </si>
+  <si>
+    <t>specimen_sex_code</t>
+  </si>
+  <si>
+    <t>maturity_convention_maxvalue</t>
+  </si>
+  <si>
+    <t>mature_at</t>
   </si>
 </sst>
 </file>
@@ -10669,7 +10704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
@@ -11578,4 +11613,932 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>99</v>
+      </c>
+      <c r="E18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>99</v>
+      </c>
+      <c r="E19">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>32</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>258</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>260</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>261</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>280</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>280</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>284</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>24</v>
+      </c>
+      <c r="B45" t="s">
+        <v>285</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>300</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47" t="s">
+        <v>300</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>315</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>